--- a/testing/testSuite/src/main/resources/TestGLINTExtract/testDoubleExecution/ExpectedResults.xlsx
+++ b/testing/testSuite/src/main/resources/TestGLINTExtract/testDoubleExecution/ExpectedResults.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3143CA3-7382-4485-88F9-389C4D6CF470}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13215" tabRatio="778" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="778" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="er_broken_feed" sheetId="7" r:id="rId1"/>
@@ -16,17 +17,25 @@
     <sheet name="er_rr_glint_batch_control" sheetId="16" r:id="rId7"/>
     <sheet name="er_rr_interface_control" sheetId="17" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="214">
   <si>
     <t>N</t>
   </si>
@@ -533,9 +542,6 @@
   </si>
   <si>
     <t>00000029</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>VARCHAR2(10 CHAR)</t>
@@ -676,7 +682,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
   </numFmts>
@@ -1090,7 +1096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1124,7 +1130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1168,7 +1174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1463,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
@@ -1479,61 +1485,61 @@
   <sheetData>
     <row r="1" spans="1:61" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>72</v>
@@ -1673,7 +1679,7 @@
         <v>114</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>116</v>
@@ -2043,7 +2049,7 @@
         <v>64</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E4" s="14" t="s">
         <v>24</v>
@@ -2058,7 +2064,7 @@
         <v>65</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>15</v>
@@ -2076,7 +2082,7 @@
         <v>68</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P4" s="14" t="s">
         <v>49</v>
@@ -2085,7 +2091,7 @@
         <v>123</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S4" s="14" t="s">
         <v>68</v>
@@ -2118,7 +2124,7 @@
         <v>65</v>
       </c>
       <c r="AC4" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD4" s="14" t="s">
         <v>15</v>
@@ -2136,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="AI4" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AJ4" s="14" t="s">
         <v>49</v>
@@ -2145,7 +2151,7 @@
         <v>123</v>
       </c>
       <c r="AL4" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM4" s="14" t="s">
         <v>68</v>
@@ -2157,16 +2163,16 @@
         <v>69</v>
       </c>
       <c r="AP4" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AQ4" s="14" t="s">
         <v>69</v>
       </c>
       <c r="AR4" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS4" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AT4" s="14" t="s">
         <v>66</v>
@@ -2222,7 +2228,7 @@
         <v>64</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>24</v>
@@ -2237,7 +2243,7 @@
         <v>65</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>16</v>
@@ -2255,7 +2261,7 @@
         <v>68</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P5" s="14" t="s">
         <v>52</v>
@@ -2264,7 +2270,7 @@
         <v>123</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S5" s="14" t="s">
         <v>68</v>
@@ -2297,7 +2303,7 @@
         <v>65</v>
       </c>
       <c r="AC5" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD5" s="14" t="s">
         <v>16</v>
@@ -2315,7 +2321,7 @@
         <v>68</v>
       </c>
       <c r="AI5" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AJ5" s="14" t="s">
         <v>52</v>
@@ -2324,7 +2330,7 @@
         <v>123</v>
       </c>
       <c r="AL5" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM5" s="14" t="s">
         <v>68</v>
@@ -2336,16 +2342,16 @@
         <v>65</v>
       </c>
       <c r="AP5" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AQ5" s="14" t="s">
         <v>65</v>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS5" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AT5" s="14" t="s">
         <v>66</v>
@@ -2401,7 +2407,7 @@
         <v>66</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>59</v>
@@ -2434,7 +2440,7 @@
         <v>68</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P6" s="14" t="s">
         <v>55</v>
@@ -2443,7 +2449,7 @@
         <v>123</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S6" s="14" t="s">
         <v>68</v>
@@ -2494,7 +2500,7 @@
         <v>68</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ6" s="14" t="s">
         <v>55</v>
@@ -2503,7 +2509,7 @@
         <v>123</v>
       </c>
       <c r="AL6" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM6" s="14" t="s">
         <v>68</v>
@@ -2515,16 +2521,16 @@
         <v>67</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ6" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT6" s="14" t="s">
         <v>67</v>
@@ -2580,7 +2586,7 @@
         <v>66</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>60</v>
@@ -2613,7 +2619,7 @@
         <v>68</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P7" s="14" t="s">
         <v>55</v>
@@ -2622,7 +2628,7 @@
         <v>123</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S7" s="14" t="s">
         <v>68</v>
@@ -2673,7 +2679,7 @@
         <v>68</v>
       </c>
       <c r="AI7" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ7" s="14" t="s">
         <v>55</v>
@@ -2682,7 +2688,7 @@
         <v>123</v>
       </c>
       <c r="AL7" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM7" s="14" t="s">
         <v>68</v>
@@ -2694,16 +2700,16 @@
         <v>67</v>
       </c>
       <c r="AP7" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ7" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR7" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS7" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT7" s="14" t="s">
         <v>67</v>
@@ -2759,7 +2765,7 @@
         <v>66</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>60</v>
@@ -2792,7 +2798,7 @@
         <v>68</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P8" s="14" t="s">
         <v>55</v>
@@ -2801,7 +2807,7 @@
         <v>123</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S8" s="14" t="s">
         <v>68</v>
@@ -2852,7 +2858,7 @@
         <v>68</v>
       </c>
       <c r="AI8" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ8" s="14" t="s">
         <v>55</v>
@@ -2861,7 +2867,7 @@
         <v>123</v>
       </c>
       <c r="AL8" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM8" s="14" t="s">
         <v>68</v>
@@ -2873,16 +2879,16 @@
         <v>67</v>
       </c>
       <c r="AP8" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ8" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR8" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS8" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT8" s="14" t="s">
         <v>67</v>
@@ -2938,7 +2944,7 @@
         <v>66</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>60</v>
@@ -2953,7 +2959,7 @@
         <v>65</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>17</v>
@@ -2971,7 +2977,7 @@
         <v>68</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P9" s="14" t="s">
         <v>55</v>
@@ -2980,7 +2986,7 @@
         <v>68</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S9" s="14" t="s">
         <v>68</v>
@@ -3013,7 +3019,7 @@
         <v>65</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD9" s="14" t="s">
         <v>17</v>
@@ -3031,7 +3037,7 @@
         <v>68</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ9" s="14" t="s">
         <v>55</v>
@@ -3040,7 +3046,7 @@
         <v>68</v>
       </c>
       <c r="AL9" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM9" s="14" t="s">
         <v>68</v>
@@ -3052,16 +3058,16 @@
         <v>67</v>
       </c>
       <c r="AP9" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ9" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR9" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS9" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AT9" s="14" t="s">
         <v>67</v>
@@ -3117,7 +3123,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>60</v>
@@ -3132,7 +3138,7 @@
         <v>65</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>17</v>
@@ -3150,7 +3156,7 @@
         <v>68</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>55</v>
@@ -3159,7 +3165,7 @@
         <v>68</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S10" s="14" t="s">
         <v>68</v>
@@ -3192,7 +3198,7 @@
         <v>65</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD10" s="14" t="s">
         <v>17</v>
@@ -3210,7 +3216,7 @@
         <v>68</v>
       </c>
       <c r="AI10" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ10" s="14" t="s">
         <v>55</v>
@@ -3219,7 +3225,7 @@
         <v>68</v>
       </c>
       <c r="AL10" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM10" s="14" t="s">
         <v>68</v>
@@ -3231,16 +3237,16 @@
         <v>67</v>
       </c>
       <c r="AP10" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ10" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR10" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS10" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AT10" s="14" t="s">
         <v>67</v>
@@ -3296,7 +3302,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>60</v>
@@ -3311,7 +3317,7 @@
         <v>65</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>17</v>
@@ -3329,7 +3335,7 @@
         <v>68</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P11" s="14" t="s">
         <v>55</v>
@@ -3338,7 +3344,7 @@
         <v>68</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S11" s="14" t="s">
         <v>68</v>
@@ -3371,7 +3377,7 @@
         <v>65</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD11" s="14" t="s">
         <v>17</v>
@@ -3389,7 +3395,7 @@
         <v>68</v>
       </c>
       <c r="AI11" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ11" s="14" t="s">
         <v>55</v>
@@ -3398,7 +3404,7 @@
         <v>68</v>
       </c>
       <c r="AL11" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM11" s="14" t="s">
         <v>68</v>
@@ -3410,16 +3416,16 @@
         <v>67</v>
       </c>
       <c r="AP11" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ11" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR11" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS11" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AT11" s="14" t="s">
         <v>67</v>
@@ -3475,7 +3481,7 @@
         <v>64</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>24</v>
@@ -3490,7 +3496,7 @@
         <v>65</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>17</v>
@@ -3508,7 +3514,7 @@
         <v>68</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>55</v>
@@ -3517,7 +3523,7 @@
         <v>123</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S12" s="14" t="s">
         <v>68</v>
@@ -3550,7 +3556,7 @@
         <v>65</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD12" s="14" t="s">
         <v>17</v>
@@ -3568,7 +3574,7 @@
         <v>68</v>
       </c>
       <c r="AI12" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ12" s="14" t="s">
         <v>55</v>
@@ -3577,7 +3583,7 @@
         <v>123</v>
       </c>
       <c r="AL12" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM12" s="14" t="s">
         <v>68</v>
@@ -3589,16 +3595,16 @@
         <v>67</v>
       </c>
       <c r="AP12" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ12" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR12" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS12" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT12" s="14" t="s">
         <v>66</v>
@@ -3654,7 +3660,7 @@
         <v>64</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" s="14" t="s">
         <v>56</v>
@@ -3669,7 +3675,7 @@
         <v>68</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>17</v>
@@ -3687,7 +3693,7 @@
         <v>68</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>55</v>
@@ -3696,7 +3702,7 @@
         <v>123</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S13" s="14" t="s">
         <v>68</v>
@@ -3729,7 +3735,7 @@
         <v>68</v>
       </c>
       <c r="AC13" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD13" s="14" t="s">
         <v>17</v>
@@ -3747,7 +3753,7 @@
         <v>68</v>
       </c>
       <c r="AI13" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ13" s="14" t="s">
         <v>55</v>
@@ -3756,7 +3762,7 @@
         <v>123</v>
       </c>
       <c r="AL13" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM13" s="14" t="s">
         <v>68</v>
@@ -3768,16 +3774,16 @@
         <v>67</v>
       </c>
       <c r="AP13" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ13" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR13" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS13" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT13" s="14" t="s">
         <v>66</v>
@@ -3833,7 +3839,7 @@
         <v>64</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>57</v>
@@ -3848,7 +3854,7 @@
         <v>65</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>17</v>
@@ -3866,7 +3872,7 @@
         <v>68</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P14" s="14" t="s">
         <v>55</v>
@@ -3875,7 +3881,7 @@
         <v>123</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S14" s="14" t="s">
         <v>68</v>
@@ -3908,7 +3914,7 @@
         <v>65</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD14" s="14" t="s">
         <v>17</v>
@@ -3926,7 +3932,7 @@
         <v>68</v>
       </c>
       <c r="AI14" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ14" s="14" t="s">
         <v>55</v>
@@ -3935,7 +3941,7 @@
         <v>123</v>
       </c>
       <c r="AL14" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM14" s="14" t="s">
         <v>68</v>
@@ -3947,16 +3953,16 @@
         <v>67</v>
       </c>
       <c r="AP14" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ14" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR14" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS14" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT14" s="14" t="s">
         <v>68</v>
@@ -4012,7 +4018,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E15" s="14" t="s">
         <v>59</v>
@@ -4045,7 +4051,7 @@
         <v>68</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P15" s="14" t="s">
         <v>55</v>
@@ -4054,7 +4060,7 @@
         <v>123</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S15" s="14" t="s">
         <v>68</v>
@@ -4105,7 +4111,7 @@
         <v>68</v>
       </c>
       <c r="AI15" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ15" s="14" t="s">
         <v>55</v>
@@ -4114,7 +4120,7 @@
         <v>123</v>
       </c>
       <c r="AL15" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM15" s="14" t="s">
         <v>68</v>
@@ -4126,16 +4132,16 @@
         <v>67</v>
       </c>
       <c r="AP15" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ15" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR15" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS15" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT15" s="14" t="s">
         <v>66</v>
@@ -4191,7 +4197,7 @@
         <v>64</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>58</v>
@@ -4206,7 +4212,7 @@
         <v>65</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>17</v>
@@ -4224,7 +4230,7 @@
         <v>68</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>55</v>
@@ -4233,7 +4239,7 @@
         <v>123</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S16" s="14" t="s">
         <v>68</v>
@@ -4266,7 +4272,7 @@
         <v>65</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD16" s="14" t="s">
         <v>17</v>
@@ -4284,7 +4290,7 @@
         <v>68</v>
       </c>
       <c r="AI16" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ16" s="14" t="s">
         <v>55</v>
@@ -4293,7 +4299,7 @@
         <v>123</v>
       </c>
       <c r="AL16" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM16" s="14" t="s">
         <v>68</v>
@@ -4305,16 +4311,16 @@
         <v>67</v>
       </c>
       <c r="AP16" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ16" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR16" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS16" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AT16" s="14" t="s">
         <v>66</v>
@@ -4370,7 +4376,7 @@
         <v>64</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>60</v>
@@ -4385,7 +4391,7 @@
         <v>65</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>17</v>
@@ -4403,7 +4409,7 @@
         <v>68</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P17" s="14" t="s">
         <v>55</v>
@@ -4412,7 +4418,7 @@
         <v>68</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S17" s="14" t="s">
         <v>68</v>
@@ -4445,7 +4451,7 @@
         <v>65</v>
       </c>
       <c r="AC17" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AD17" s="14" t="s">
         <v>17</v>
@@ -4463,7 +4469,7 @@
         <v>68</v>
       </c>
       <c r="AI17" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AJ17" s="14" t="s">
         <v>55</v>
@@ -4472,7 +4478,7 @@
         <v>68</v>
       </c>
       <c r="AL17" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AM17" s="14" t="s">
         <v>68</v>
@@ -4484,13 +4490,13 @@
         <v>67</v>
       </c>
       <c r="AP17" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AQ17" s="14" t="s">
         <v>67</v>
       </c>
       <c r="AR17" s="14" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS17" s="14" t="s">
         <v>68</v>
@@ -4545,12 +4551,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:AE13"/>
+      <selection pane="bottomLeft" activeCell="Z2" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4663,13 +4669,13 @@
         <v>149</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
@@ -4683,73 +4689,73 @@
         <v>166</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="R2" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>150</v>
@@ -4761,10 +4767,10 @@
         <v>13</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -4873,7 +4879,7 @@
         <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
         <v>66</v>
@@ -4935,20 +4941,20 @@
       <c r="Y4" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z4" s="10" t="s">
-        <v>169</v>
+      <c r="Z4" s="3">
+        <v>0</v>
       </c>
       <c r="AA4" t="s">
         <v>154</v>
       </c>
       <c r="AC4" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AE4" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
@@ -4962,7 +4968,7 @@
         <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
         <v>64</v>
@@ -5019,25 +5025,25 @@
         <v>154</v>
       </c>
       <c r="X5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y5" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z5" s="10" t="s">
-        <v>169</v>
+      <c r="Z5" s="3">
+        <v>0</v>
       </c>
       <c r="AA5" t="s">
         <v>154</v>
       </c>
       <c r="AC5" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AE5" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
@@ -5051,7 +5057,7 @@
         <v>152</v>
       </c>
       <c r="D6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E6" t="s">
         <v>64</v>
@@ -5108,25 +5114,25 @@
         <v>154</v>
       </c>
       <c r="X6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y6" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z6" s="10" t="s">
-        <v>169</v>
+      <c r="Z6" s="3">
+        <v>0</v>
       </c>
       <c r="AA6" t="s">
         <v>154</v>
       </c>
       <c r="AC6" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD6" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AE6" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
@@ -5140,7 +5146,7 @@
         <v>152</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
         <v>64</v>
@@ -5197,25 +5203,25 @@
         <v>154</v>
       </c>
       <c r="X7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y7" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z7" s="10" t="s">
-        <v>169</v>
+      <c r="Z7" s="3">
+        <v>0</v>
       </c>
       <c r="AA7" t="s">
         <v>154</v>
       </c>
       <c r="AC7" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AE7" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
@@ -5229,7 +5235,7 @@
         <v>152</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E8" t="s">
         <v>66</v>
@@ -5291,20 +5297,20 @@
       <c r="Y8" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z8" s="10" t="s">
-        <v>169</v>
+      <c r="Z8" s="3">
+        <v>0</v>
       </c>
       <c r="AA8" t="s">
         <v>154</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
@@ -5318,7 +5324,7 @@
         <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E9" t="s">
         <v>66</v>
@@ -5375,25 +5381,25 @@
         <v>154</v>
       </c>
       <c r="X9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y9" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z9" s="10" t="s">
-        <v>169</v>
+      <c r="Z9" s="3">
+        <v>0</v>
       </c>
       <c r="AA9" t="s">
         <v>154</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
@@ -5407,7 +5413,7 @@
         <v>152</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E10" t="s">
         <v>64</v>
@@ -5464,25 +5470,25 @@
         <v>154</v>
       </c>
       <c r="X10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y10" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z10" s="10" t="s">
-        <v>169</v>
+      <c r="Z10" s="3">
+        <v>0</v>
       </c>
       <c r="AA10" t="s">
         <v>154</v>
       </c>
       <c r="AC10" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD10" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AE10" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
@@ -5496,7 +5502,7 @@
         <v>152</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E11" t="s">
         <v>64</v>
@@ -5558,20 +5564,20 @@
       <c r="Y11" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z11" s="10" t="s">
-        <v>169</v>
+      <c r="Z11" s="3">
+        <v>0</v>
       </c>
       <c r="AA11" t="s">
         <v>154</v>
       </c>
       <c r="AC11" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AE11" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
@@ -5585,7 +5591,7 @@
         <v>152</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
         <v>64</v>
@@ -5642,25 +5648,25 @@
         <v>154</v>
       </c>
       <c r="X12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y12" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="Z12" s="10" t="s">
-        <v>169</v>
+      <c r="Z12" s="3">
+        <v>0</v>
       </c>
       <c r="AA12" t="s">
         <v>154</v>
       </c>
       <c r="AC12" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD12" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
@@ -5674,7 +5680,7 @@
         <v>152</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
         <v>64</v>
@@ -5731,25 +5737,25 @@
         <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y13" t="s">
         <v>154</v>
       </c>
-      <c r="Z13" s="10" t="s">
-        <v>169</v>
+      <c r="Z13">
+        <v>0</v>
       </c>
       <c r="AA13" t="s">
         <v>154</v>
       </c>
       <c r="AC13" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AD13" s="4" t="s">
         <v>0</v>
       </c>
       <c r="AE13" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -5759,7 +5765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5835,7 +5841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5976,10 +5982,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
